--- a/general_mills/final_statements_standardized/Consolidated Statements Of Cash Flows.xlsx
+++ b/general_mills/final_statements_standardized/Consolidated Statements Of Cash Flows.xlsx
@@ -34,7 +34,7 @@
     <t>item</t>
   </si>
   <si>
-    <t>Net Earnings Including Noncontrolling Interests</t>
+    <t>Net Earnings, Including Earnings Attributable To Noncontrolling Interests</t>
   </si>
   <si>
     <t>Depreciation And Amortization</t>
@@ -46,60 +46,63 @@
     <t>Deferred Income Taxes</t>
   </si>
   <si>
-    <t>Restructuring, Impairment, And Other Exit Costs (Recoveries)</t>
+    <t>Restructuring, Impairment, And Other Exit Costs</t>
+  </si>
+  <si>
+    <t>Pension And Other Postretirement Benefit Plan Costs</t>
+  </si>
+  <si>
+    <t>After-Tax Earnings From Joint Ventures</t>
+  </si>
+  <si>
+    <t>Pension And Other Postretirement Benefit Plan Contributions</t>
+  </si>
+  <si>
+    <t>Changes In Current Assets And Liabilities</t>
+  </si>
+  <si>
+    <t>Receivables (Changes In Current Assets And Liabilities)</t>
+  </si>
+  <si>
+    <t>Inventories (Changes In Current Assets And Liabilities)</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses And Other Current Assets (Changes In Current Assets And Liabilities)</t>
+  </si>
+  <si>
+    <t>Accounts Payable (Changes In Current Assets And Liabilities)</t>
+  </si>
+  <si>
+    <t>Other Current Liabilities (Changes In Current Assets And Liabilities)</t>
+  </si>
+  <si>
+    <t>Other, Net (Operating Activities)</t>
+  </si>
+  <si>
+    <t>Net Cash Provided By Operating Activities</t>
+  </si>
+  <si>
+    <t>Acquisitions, Net Of Cash Acquired</t>
+  </si>
+  <si>
+    <t>Purchases Of Land, Buildings, And Equipment</t>
+  </si>
+  <si>
+    <t>Proceeds From Disposal Of Land, Buildings, And Equipment</t>
+  </si>
+  <si>
+    <t>Investments In Affiliates, Net</t>
+  </si>
+  <si>
+    <t>Investments In Redeemable Interest</t>
+  </si>
+  <si>
+    <t>Proceeds From Divestitures, Net Of Cash Divested</t>
   </si>
   <si>
     <t>Divestitures (Gain) Loss, Net</t>
   </si>
   <si>
-    <t>After-Tax Earnings From Joint Ventures</t>
-  </si>
-  <si>
-    <t>Pension And Other Postretirement Benefit Plan Costs</t>
-  </si>
-  <si>
-    <t>Changes In Receivables</t>
-  </si>
-  <si>
-    <t>Changes In Inventories</t>
-  </si>
-  <si>
-    <t>Changes In Prepaid Expenses And Other Current Assets</t>
-  </si>
-  <si>
-    <t>Changes In Accounts Payable</t>
-  </si>
-  <si>
-    <t>Changes In Other Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Changes In Current Assets And Liabilities</t>
-  </si>
-  <si>
-    <t>Other, Net (Operating Activities)</t>
-  </si>
-  <si>
-    <t>Net Cash Provided By Operating Activities</t>
-  </si>
-  <si>
-    <t>Acquisitions, Net Of Cash Acquired</t>
-  </si>
-  <si>
-    <t>Purchases Of Land, Buildings, And Equipment</t>
-  </si>
-  <si>
-    <t>Investments In Affiliates, Net</t>
-  </si>
-  <si>
-    <t>Investments In Redeemable Interest</t>
-  </si>
-  <si>
-    <t>Proceeds From Disposal Of Land, Buildings, And Equipment</t>
-  </si>
-  <si>
-    <t>Proceeds From Divestitures, Net Of Cash Divested</t>
-  </si>
-  <si>
     <t>Distributions Of Earnings From Joint Ventures</t>
   </si>
   <si>
@@ -124,21 +127,18 @@
     <t>Purchases Of Common Stock For Treasury</t>
   </si>
   <si>
+    <t>Repurchase Of Class A Limited Membership Interests</t>
+  </si>
+  <si>
     <t>Dividends Paid</t>
   </si>
   <si>
     <t>Distributions To Noncontrolling And Redeemable Interest Holders</t>
   </si>
   <si>
-    <t>Repurchase Of Class A Limited Membership Interests</t>
-  </si>
-  <si>
     <t>Debt Exchange Participation Incentive Cash Payment</t>
   </si>
   <si>
-    <t>Pension And Other Postretirement Benefit Plan Contributions</t>
-  </si>
-  <si>
     <t>Other, Net (Financing Activities)</t>
   </si>
   <si>
@@ -148,7 +148,7 @@
     <t>Effect Of Exchange Rate Changes On Cash And Cash Equivalents</t>
   </si>
   <si>
-    <t>Net Increase (Decrease) In Cash And Cash Equivalents</t>
+    <t>Increase (Decrease) In Cash And Cash Equivalents</t>
   </si>
   <si>
     <t>Cash And Cash Equivalents - Beginning Of Year</t>
@@ -643,19 +643,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>53.5</v>
+        <v>-33.6</v>
       </c>
       <c r="C7">
-        <v>-194.1</v>
+        <v>-30.1</v>
       </c>
       <c r="D7">
-        <v>-444.6</v>
+        <v>-27.6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="F7">
-        <v>-95.90000000000001</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -683,19 +683,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-33.6</v>
+        <v>-33.4</v>
       </c>
       <c r="C9">
+        <v>-31.3</v>
+      </c>
+      <c r="D9">
         <v>-30.1</v>
       </c>
-      <c r="D9">
-        <v>-27.6</v>
-      </c>
       <c r="E9">
-        <v>-27</v>
+        <v>-30.1</v>
       </c>
       <c r="F9">
-        <v>-12.7</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -703,19 +703,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>27.9</v>
+        <v>-311.8</v>
       </c>
       <c r="C10">
-        <v>-166.3</v>
+        <v>554.8</v>
       </c>
       <c r="D10">
-        <v>-41.2</v>
+        <v>-97.8</v>
       </c>
       <c r="E10">
-        <v>-1.8</v>
+        <v>21.2</v>
       </c>
       <c r="F10">
-        <v>-79</v>
+        <v>384.8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -723,19 +723,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-354.7</v>
+        <v>27.9</v>
       </c>
       <c r="C11">
-        <v>-85.8</v>
+        <v>-166.3</v>
       </c>
       <c r="D11">
-        <v>-319</v>
+        <v>-41.2</v>
       </c>
       <c r="E11">
-        <v>287.6</v>
+        <v>-1.8</v>
       </c>
       <c r="F11">
-        <v>-18.5</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -743,19 +743,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-42.7</v>
+        <v>-354.7</v>
       </c>
       <c r="C12">
-        <v>-35.3</v>
+        <v>-85.8</v>
       </c>
       <c r="D12">
-        <v>61.6</v>
+        <v>-319</v>
       </c>
       <c r="E12">
-        <v>167</v>
+        <v>287.6</v>
       </c>
       <c r="F12">
-        <v>80.8</v>
+        <v>-18.5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -763,19 +763,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>343.1</v>
+        <v>-42.7</v>
       </c>
       <c r="C13">
-        <v>456.7</v>
+        <v>-35.3</v>
       </c>
       <c r="D13">
-        <v>199.8</v>
+        <v>61.6</v>
       </c>
       <c r="E13">
-        <v>-251.2</v>
+        <v>167</v>
       </c>
       <c r="F13">
-        <v>86.7</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -783,19 +783,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>-129.5</v>
+        <v>343.1</v>
       </c>
       <c r="C14">
-        <v>108.1</v>
+        <v>456.7</v>
       </c>
       <c r="D14">
-        <v>49.9</v>
+        <v>199.8</v>
       </c>
       <c r="E14">
-        <v>-191</v>
+        <v>-251.2</v>
       </c>
       <c r="F14">
-        <v>122.4</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -803,19 +803,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-311.8</v>
+        <v>-129.5</v>
       </c>
       <c r="C15">
-        <v>554.8</v>
+        <v>108.1</v>
       </c>
       <c r="D15">
-        <v>-97.8</v>
+        <v>49.9</v>
       </c>
       <c r="E15">
-        <v>21.2</v>
+        <v>-191</v>
       </c>
       <c r="F15">
-        <v>384.8</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -823,16 +823,16 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-131.8</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>-50.7</v>
       </c>
       <c r="D16">
-        <v>71.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>-24.8</v>
@@ -903,19 +903,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>15.5</v>
+        <v>2.7</v>
       </c>
       <c r="C20">
-        <v>15.4</v>
+        <v>3.3</v>
       </c>
       <c r="D20">
-        <v>-32.2</v>
+        <v>1.3</v>
       </c>
       <c r="E20">
-        <v>-2.7</v>
+        <v>0.8</v>
       </c>
       <c r="F20">
-        <v>13.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -923,19 +923,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-32.2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>-2.7</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -943,19 +943,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -983,19 +983,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>95.2</v>
+        <v>53.5</v>
       </c>
       <c r="C24">
-        <v>107.5</v>
+        <v>-194.1</v>
       </c>
       <c r="D24">
-        <v>69.90000000000001</v>
+        <v>-444.6</v>
       </c>
       <c r="E24">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>44.6</v>
+        <v>-95.90000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="C25">
-        <v>-13.5</v>
+        <v>107.5</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="F25">
-        <v>-6.5</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1023,19 +1023,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>-512.8</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>-1690.7</v>
+        <v>-13.5</v>
       </c>
       <c r="D26">
-        <v>-346.4</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>-1197.4</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>-1794.9</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1576.5</v>
+        <v>-512.8</v>
       </c>
       <c r="C27">
-        <v>2203.7</v>
+        <v>-1690.7</v>
       </c>
       <c r="D27">
-        <v>2324.4</v>
+        <v>-346.4</v>
       </c>
       <c r="E27">
-        <v>2065.2</v>
+        <v>-1197.4</v>
       </c>
       <c r="F27">
-        <v>2354.9</v>
+        <v>-1794.9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1063,19 +1063,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-2609</v>
+        <v>1576.5</v>
       </c>
       <c r="C28">
-        <v>-3140.9</v>
+        <v>2203.7</v>
       </c>
       <c r="D28">
-        <v>-1421.7</v>
+        <v>2324.4</v>
       </c>
       <c r="E28">
-        <v>-901.5</v>
+        <v>2065.2</v>
       </c>
       <c r="F28">
-        <v>-1300</v>
+        <v>2354.9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>71.7</v>
+        <v>-2609</v>
       </c>
       <c r="C29">
-        <v>551.4</v>
+        <v>-3140.9</v>
       </c>
       <c r="D29">
-        <v>-769.3</v>
+        <v>-1421.7</v>
       </c>
       <c r="E29">
-        <v>-20.5</v>
+        <v>-901.5</v>
       </c>
       <c r="F29">
-        <v>667.1</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>74.3</v>
+        <v>71.7</v>
       </c>
       <c r="C30">
-        <v>161.7</v>
+        <v>551.4</v>
       </c>
       <c r="D30">
-        <v>232.3</v>
+        <v>-769.3</v>
       </c>
       <c r="E30">
-        <v>25.5</v>
+        <v>-20.5</v>
       </c>
       <c r="F30">
-        <v>43</v>
+        <v>667.1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-301.4</v>
+        <v>74.3</v>
       </c>
       <c r="C31">
-        <v>-876.8</v>
+        <v>161.7</v>
       </c>
       <c r="D31">
-        <v>-1403.6</v>
+        <v>232.3</v>
       </c>
       <c r="E31">
-        <v>-2002.4</v>
+        <v>25.5</v>
       </c>
       <c r="F31">
-        <v>-1202.9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>-1246.4</v>
+        <v>-301.4</v>
       </c>
       <c r="C32">
-        <v>-1244.5</v>
+        <v>-876.8</v>
       </c>
       <c r="D32">
-        <v>-1287.9</v>
+        <v>-1403.6</v>
       </c>
       <c r="E32">
-        <v>-1363.4</v>
+        <v>-2002.4</v>
       </c>
       <c r="F32">
-        <v>-1338.7</v>
+        <v>-1202.9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-48.9</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-129.8</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-15.7</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-21.3</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>-21.6</v>
+        <v>-252.8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-1246.4</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-1244.5</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-1287.9</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>-1363.4</v>
       </c>
       <c r="F34">
-        <v>-252.8</v>
+        <v>-1338.7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-201.4</v>
+        <v>-48.9</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-129.8</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-15.7</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>-21.3</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>-21.6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1223,19 +1223,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>-33.4</v>
+        <v>-201.4</v>
       </c>
       <c r="C36">
-        <v>-31.3</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-30.1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>-30.1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>-30.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
